--- a/Hotel_df_list1.xlsx
+++ b/Hotel_df_list1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rezas\OneDrive\Desktop\Thesis\Word-Meaning\Results\phase09\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E58EC6-A2F6-4ED8-9AFC-17361A280A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8E233F-5A74-4BD2-AE27-6B20A786186E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,17 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="415">
-  <si>
-    <t>org_text</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="216">
   <si>
     <t>text</t>
   </si>
   <si>
-    <t>Label</t>
-  </si>
-  <si>
     <t>simple_majority_voting</t>
   </si>
   <si>
@@ -67,1204 +61,613 @@
     <t>UMP_BERT_Dim5</t>
   </si>
   <si>
-    <t>Wonderful bright comfortable and clean rooms</t>
-  </si>
-  <si>
     <t>Wonderful bright comfortable and  &lt;em&gt;clean&lt;/em&gt;  rooms</t>
   </si>
   <si>
-    <t>Bathroom was clean spacious and airy</t>
-  </si>
-  <si>
     <t>Bathroom was  &lt;em&gt;clean&lt;/em&gt;  spacious and airy</t>
   </si>
   <si>
-    <t>The room was clean well decorated and the bed was one of the most comfortable I d ever slept in</t>
-  </si>
-  <si>
     <t>The room was  &lt;em&gt;clean&lt;/em&gt;  well decorated and the bed was one of the most comfortable I d ever slept in</t>
   </si>
   <si>
-    <t>The whole hotel was very clean</t>
-  </si>
-  <si>
     <t xml:space="preserve">The whole hotel was very  &lt;em&gt;clean&lt;/em&gt; </t>
   </si>
   <si>
-    <t>The room was exactly how the pictures looked very clean comfy and modern</t>
-  </si>
-  <si>
     <t>The room was exactly how the pictures looked very  &lt;em&gt;clean&lt;/em&gt;  comfy and modern</t>
   </si>
   <si>
-    <t>The room it self was extremely nice and clean and the bed was very comfy</t>
-  </si>
-  <si>
     <t>The room it self was extremely nice and  &lt;em&gt;clean&lt;/em&gt;  and the bed was very comfy</t>
   </si>
   <si>
-    <t>Generally clean and interestingly designed</t>
-  </si>
-  <si>
     <t>Generally  &lt;em&gt;clean&lt;/em&gt;  and interestingly designed</t>
   </si>
   <si>
-    <t>Wonderful comfy beds in clean well equipped rooms</t>
-  </si>
-  <si>
     <t>Wonderful comfy beds in  &lt;em&gt;clean&lt;/em&gt;  well equipped rooms</t>
   </si>
   <si>
-    <t>It was nice the shower was clean</t>
-  </si>
-  <si>
     <t xml:space="preserve">It was nice the shower was  &lt;em&gt;clean&lt;/em&gt; </t>
   </si>
   <si>
-    <t>The rooms were clean stylish and comfortable</t>
-  </si>
-  <si>
     <t>The rooms were  &lt;em&gt;clean&lt;/em&gt;  stylish and comfortable</t>
   </si>
   <si>
-    <t>The room itself was clean and comfortable and the location was great</t>
-  </si>
-  <si>
     <t>The room itself was  &lt;em&gt;clean&lt;/em&gt;  and comfortable and the location was great</t>
   </si>
   <si>
-    <t>Rooms are fantastically cozy clean and comfortable</t>
-  </si>
-  <si>
     <t>Rooms are fantastically cozy  &lt;em&gt;clean&lt;/em&gt;  and comfortable</t>
   </si>
   <si>
-    <t>Our room was beautifully decorated very modern sleek design with a mezzanine and spotlessly clean</t>
-  </si>
-  <si>
     <t xml:space="preserve">Our room was beautifully decorated very modern sleek design with a mezzanine and spotlessly  &lt;em&gt;clean&lt;/em&gt; </t>
   </si>
   <si>
-    <t>Large clean rooms with a nice size comfy bed</t>
-  </si>
-  <si>
     <t>Large  &lt;em&gt;clean&lt;/em&gt;  rooms with a nice size comfy bed</t>
   </si>
   <si>
-    <t>All round just very clean</t>
-  </si>
-  <si>
     <t xml:space="preserve">All round just very  &lt;em&gt;clean&lt;/em&gt; </t>
   </si>
   <si>
-    <t>Very clean and tidy hotel</t>
-  </si>
-  <si>
     <t>Very  &lt;em&gt;clean&lt;/em&gt;  and tidy hotel</t>
   </si>
   <si>
-    <t>The room was so clean and tidy</t>
-  </si>
-  <si>
     <t>The room was so  &lt;em&gt;clean&lt;/em&gt;  and tidy</t>
   </si>
   <si>
-    <t>Excellent staff and clean comfortable room</t>
-  </si>
-  <si>
     <t>Excellent staff and  &lt;em&gt;clean&lt;/em&gt;  comfortable room</t>
   </si>
   <si>
-    <t>Very nice hotel clean and stylish and very helpful staff</t>
-  </si>
-  <si>
     <t>Very nice hotel  &lt;em&gt;clean&lt;/em&gt;  and stylish and very helpful staff</t>
   </si>
   <si>
-    <t>Impeccably clean room</t>
-  </si>
-  <si>
     <t>Impeccably  &lt;em&gt;clean&lt;/em&gt;  room</t>
   </si>
   <si>
-    <t>Our room is not in the basement and it s clean especially the bathroom which we care most</t>
-  </si>
-  <si>
     <t>Our room is not in the basement and it s  &lt;em&gt;clean&lt;/em&gt;  especially the bathroom which we care most</t>
   </si>
   <si>
-    <t>ooms were fine nothing outstanding but clean and the bed was comfy</t>
-  </si>
-  <si>
     <t>ooms were fine nothing outstanding but  &lt;em&gt;clean&lt;/em&gt;  and the bed was comfy</t>
   </si>
   <si>
-    <t>It was very clean and charming with comfortable beds and in a lovely quiet neighborhood proximate to transportation to everything</t>
-  </si>
-  <si>
     <t>It was very  &lt;em&gt;clean&lt;/em&gt;  and charming with comfortable beds and in a lovely quiet neighborhood proximate to transportation to everything</t>
   </si>
   <si>
-    <t>Quiet room plenty big enough very clean with attractive garden views</t>
-  </si>
-  <si>
     <t>Quiet room plenty big enough very  &lt;em&gt;clean&lt;/em&gt;  with attractive garden views</t>
   </si>
   <si>
-    <t>Well located very clean and good sized rooms</t>
-  </si>
-  <si>
     <t>Well located very  &lt;em&gt;clean&lt;/em&gt;  and good sized rooms</t>
   </si>
   <si>
-    <t>Even though the pictures show very clean rooms the actual room was quit dirty and outlived</t>
-  </si>
-  <si>
     <t>Even though the pictures show very  &lt;em&gt;clean&lt;/em&gt;  rooms the actual room was quit dirty and outlived</t>
   </si>
   <si>
-    <t>Sadly I cannot say that the rooms are clean enough for me</t>
-  </si>
-  <si>
     <t>Sadly I cannot say that the rooms are  &lt;em&gt;clean&lt;/em&gt;  enough for me</t>
   </si>
   <si>
-    <t>The bath tub wasn t completely clean that would be my only gripe</t>
-  </si>
-  <si>
     <t>The bath tub wasn t completely  &lt;em&gt;clean&lt;/em&gt;  that would be my only gripe</t>
   </si>
   <si>
-    <t>It was half clean and not very central</t>
-  </si>
-  <si>
     <t>It was half  &lt;em&gt;clean&lt;/em&gt;  and not very central</t>
   </si>
   <si>
-    <t>It is basic clean no frills or comfort three star max</t>
-  </si>
-  <si>
     <t>It is basic  &lt;em&gt;clean&lt;/em&gt;  no frills or comfort three star max</t>
   </si>
   <si>
-    <t>On arrival the room was tidy but not clean</t>
-  </si>
-  <si>
     <t xml:space="preserve">On arrival the room was tidy but not  &lt;em&gt;clean&lt;/em&gt; </t>
   </si>
   <si>
-    <t>Not really clean and everything was worn out</t>
-  </si>
-  <si>
     <t>Not really  &lt;em&gt;clean&lt;/em&gt;  and everything was worn out</t>
   </si>
   <si>
-    <t>The room we were given originally wasn t very clean</t>
-  </si>
-  <si>
     <t xml:space="preserve">The room we were given originally wasn t very  &lt;em&gt;clean&lt;/em&gt; </t>
   </si>
   <si>
-    <t>The only thing I can think of is that i would have preferred not to have a wall to wall carpet in the room but it seemed clean so it was no big deal</t>
-  </si>
-  <si>
     <t>The only thing I can think of is that i would have preferred not to have a wall to wall carpet in the room but it seemed  &lt;em&gt;clean&lt;/em&gt;  so it was no big deal</t>
   </si>
   <si>
-    <t>Bathroom although clean was dated</t>
-  </si>
-  <si>
     <t>Bathroom although  &lt;em&gt;clean&lt;/em&gt;  was dated</t>
   </si>
   <si>
-    <t>The basin doesn t seem to be clean enough</t>
-  </si>
-  <si>
     <t>The basin doesn t seem to be  &lt;em&gt;clean&lt;/em&gt;  enough</t>
   </si>
   <si>
-    <t>The shower was half clean the window curtain and the window were dirty</t>
-  </si>
-  <si>
     <t>The shower was half  &lt;em&gt;clean&lt;/em&gt;  the window curtain and the window were dirty</t>
   </si>
   <si>
-    <t>The room itself was clean and of a good size but lacked in any form of character</t>
-  </si>
-  <si>
     <t>The room itself was  &lt;em&gt;clean&lt;/em&gt;  and of a good size but lacked in any form of character</t>
   </si>
   <si>
-    <t>Not clean enough and when cleaner comes with just polish and a rag then you know it s not being cleaned good enough</t>
-  </si>
-  <si>
     <t>Not  &lt;em&gt;clean&lt;/em&gt;  enough and when  &lt;em&gt;clean&lt;/em&gt; er comes with just polish and a rag then you know it s not being  &lt;em&gt;clean&lt;/em&gt; ed good enough</t>
   </si>
   <si>
-    <t>Room very small but spotlessly clean</t>
-  </si>
-  <si>
     <t xml:space="preserve">Room very small but spotlessly  &lt;em&gt;clean&lt;/em&gt; </t>
   </si>
   <si>
-    <t>The rooms are faded and dated and didn t strike me as very clean</t>
-  </si>
-  <si>
     <t xml:space="preserve">The rooms are faded and dated and didn t strike me as very  &lt;em&gt;clean&lt;/em&gt; </t>
   </si>
   <si>
-    <t>Another issue was that while the bed and room was clean the window was very dirty</t>
-  </si>
-  <si>
     <t>Another issue was that while the bed and room was  &lt;em&gt;clean&lt;/em&gt;  the window was very dirty</t>
   </si>
   <si>
-    <t>Although clean and well maintained rooms were a bit run down</t>
-  </si>
-  <si>
     <t>Although  &lt;em&gt;clean&lt;/em&gt;  and well maintained rooms were a bit run down</t>
   </si>
   <si>
-    <t>Room was not too clean and pillows smelt</t>
-  </si>
-  <si>
     <t>Room was not too  &lt;em&gt;clean&lt;/em&gt;  and pillows smelt</t>
   </si>
   <si>
-    <t>The room was not cleaned during our four day stay other than clean towels</t>
-  </si>
-  <si>
     <t>The room was not  &lt;em&gt;clean&lt;/em&gt; ed during our four day stay other than  &lt;em&gt;clean&lt;/em&gt;  towels</t>
   </si>
   <si>
-    <t>The room was very small but very clean and stylish</t>
-  </si>
-  <si>
     <t>The room was very small but very  &lt;em&gt;clean&lt;/em&gt;  and stylish</t>
   </si>
   <si>
-    <t>The bedding wasn t clean</t>
-  </si>
-  <si>
     <t xml:space="preserve">The bedding wasn t  &lt;em&gt;clean&lt;/em&gt; </t>
   </si>
   <si>
-    <t>The vents made a lot of noise through the night and it wasnt as clean as it should have b en</t>
-  </si>
-  <si>
     <t>The vents made a lot of noise through the night and it wasnt as  &lt;em&gt;clean&lt;/em&gt;  as it should have b en</t>
   </si>
   <si>
-    <t>Floor in foyer worn and didn t appear clean</t>
-  </si>
-  <si>
     <t xml:space="preserve">Floor in foyer worn and didn t appear  &lt;em&gt;clean&lt;/em&gt; </t>
   </si>
   <si>
-    <t>there were lights missing and the bathroom floor was not entirely clean</t>
-  </si>
-  <si>
     <t xml:space="preserve">there were lights missing and the bathroom floor was not entirely  &lt;em&gt;clean&lt;/em&gt; </t>
   </si>
   <si>
-    <t>Room was unclean unorganized no four stars</t>
-  </si>
-  <si>
     <t>Room was  &lt;em&gt;unclean&lt;/em&gt;  unorganized no four stars</t>
   </si>
   <si>
-    <t>there are no fridges so we ordered an ice bucket which after the ice melted turned out to be unclean and had tissues and garbage at the bottom</t>
-  </si>
-  <si>
     <t>there are no fridges so we ordered an ice bucket which after the ice melted turned out to be  &lt;em&gt;unclean&lt;/em&gt;  and had tissues and garbage at the bottom</t>
   </si>
   <si>
-    <t>Very bad house keeping not even a 2 star level leaving areas unclean never changing the bed sheets unless you told them</t>
-  </si>
-  <si>
     <t>Very bad house keeping not even a 2 star level leaving areas  &lt;em&gt;unclean&lt;/em&gt;  never changing the bed sheets unless you told them</t>
   </si>
   <si>
-    <t>Location was terrible the area was unclean and smelled terrible</t>
-  </si>
-  <si>
     <t>Location was terrible the area was  &lt;em&gt;unclean&lt;/em&gt;  and smelled terrible</t>
   </si>
   <si>
-    <t>the rooms are tiny and it felt unclean</t>
-  </si>
-  <si>
     <t xml:space="preserve">the rooms are tiny and it felt  &lt;em&gt;unclean&lt;/em&gt; </t>
   </si>
   <si>
-    <t>The bedroom was small and cramped the room smelt and the bathroom was worn tattered unclean and the breakfast was average</t>
-  </si>
-  <si>
     <t>The bedroom was small and cramped the room smelt and the bathroom was worn tattered  &lt;em&gt;unclean&lt;/em&gt;  and the breakfast was average</t>
   </si>
   <si>
-    <t>rooms were tiny and the kettle was unclean and smelled disgusting</t>
-  </si>
-  <si>
     <t>rooms were tiny and the kettle was  &lt;em&gt;unclean&lt;/em&gt;  and smelled disgusting</t>
   </si>
   <si>
-    <t>bathroom floor unclean</t>
-  </si>
-  <si>
     <t xml:space="preserve">bathroom floor  &lt;em&gt;unclean&lt;/em&gt; </t>
   </si>
   <si>
-    <t>carpet old and unclean</t>
-  </si>
-  <si>
     <t xml:space="preserve">carpet old and  &lt;em&gt;unclean&lt;/em&gt; </t>
   </si>
   <si>
-    <t>Rooms were horrible unclean</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rooms were horrible  &lt;em&gt;unclean&lt;/em&gt; </t>
   </si>
   <si>
-    <t>Bed sheets proved to be unclean as one of us got scabies after our stay at this hotel</t>
-  </si>
-  <si>
     <t>Bed sheets proved to be  &lt;em&gt;unclean&lt;/em&gt;  as one of us got scabies after our stay at this hotel</t>
   </si>
   <si>
-    <t>Very small unclean rooms and uncooperative staff</t>
-  </si>
-  <si>
     <t>Very small  &lt;em&gt;unclean&lt;/em&gt;  rooms and uncooperative staff</t>
   </si>
   <si>
-    <t>Aspects of room were unclean dusty and a little unsanitary for the class of hotel</t>
-  </si>
-  <si>
     <t>Aspects of room were  &lt;em&gt;unclean&lt;/em&gt;  dusty and a little unsanitary for the class of hotel</t>
   </si>
   <si>
-    <t>The chopped fruit left in my room was a nice touch but was without a cover and the bathroom was unclean</t>
-  </si>
-  <si>
     <t xml:space="preserve">The chopped fruit left in my room was a nice touch but was without a cover and the bathroom was  &lt;em&gt;unclean&lt;/em&gt; </t>
   </si>
   <si>
-    <t>The pool and facilities were unclean</t>
-  </si>
-  <si>
     <t xml:space="preserve">The pool and facilities were  &lt;em&gt;unclean&lt;/em&gt; </t>
   </si>
   <si>
-    <t>My worst experience is to have a really unclean room</t>
-  </si>
-  <si>
     <t>My worst experience is to have a really  &lt;em&gt;unclean&lt;/em&gt;  room</t>
   </si>
   <si>
-    <t>Rooms in desperate need for a refurbishment noisy and it looks rather unclean</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rooms in desperate need for a refurbishment noisy and it looks rather  &lt;em&gt;unclean&lt;/em&gt; </t>
   </si>
   <si>
-    <t>shower was unclean</t>
-  </si>
-  <si>
     <t xml:space="preserve">shower was  &lt;em&gt;unclean&lt;/em&gt; </t>
   </si>
   <si>
-    <t>The room was unclean</t>
-  </si>
-  <si>
     <t xml:space="preserve">The room was  &lt;em&gt;unclean&lt;/em&gt; </t>
   </si>
   <si>
-    <t>Sauna was unclean with a damp floor as opposed to a wooden one like most saunas are</t>
-  </si>
-  <si>
     <t>Sauna was  &lt;em&gt;unclean&lt;/em&gt;  with a damp floor as opposed to a wooden one like most saunas are</t>
   </si>
   <si>
-    <t>Hotel reception toilets dirty and unclean</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hotel reception toilets dirty and  &lt;em&gt;unclean&lt;/em&gt; </t>
   </si>
   <si>
-    <t>unclean rooms</t>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;em&gt;unclean&lt;/em&gt;  rooms</t>
   </si>
   <si>
-    <t>Room smelled unclean</t>
-  </si>
-  <si>
     <t xml:space="preserve">Room smelled  &lt;em&gt;unclean&lt;/em&gt; </t>
   </si>
   <si>
-    <t>Quality of hotel is poor unclean and looking in need of refurbishment</t>
-  </si>
-  <si>
     <t>Quality of hotel is poor  &lt;em&gt;unclean&lt;/em&gt;  and looking in need of refurbishment</t>
   </si>
   <si>
-    <t>The hallways were dark hot and smelt unclean</t>
-  </si>
-  <si>
     <t xml:space="preserve">The hallways were dark hot and smelt  &lt;em&gt;unclean&lt;/em&gt; </t>
   </si>
   <si>
-    <t>the cleanest not that good we can see dust everywhere leave the used cups unclean some day they don t change the bed sheets</t>
-  </si>
-  <si>
     <t>the cleanest not that good we can see dust everywhere leave the used cups  &lt;em&gt;unclean&lt;/em&gt;  some day they don t change the bed sheets</t>
   </si>
   <si>
-    <t>Dirty carpets and battered throws in room 409 Made the room feel unclean</t>
-  </si>
-  <si>
     <t xml:space="preserve">Dirty carpets and battered throws in room 409 Made the room feel  &lt;em&gt;unclean&lt;/em&gt; </t>
   </si>
   <si>
-    <t>The bathroom was beautiful but I felt unclean and smelt</t>
-  </si>
-  <si>
     <t>The bathroom was beautiful but I felt  &lt;em&gt;unclean&lt;/em&gt;  and smelt</t>
   </si>
   <si>
-    <t>The rooms I was initially offered as even an upgrade were unclean</t>
-  </si>
-  <si>
     <t xml:space="preserve">The rooms I was initially offered as even an upgrade were  &lt;em&gt;unclean&lt;/em&gt; </t>
   </si>
   <si>
-    <t>Unclean overpriced hotel</t>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;em&gt;Unclean&lt;/em&gt;  overpriced hotel</t>
   </si>
   <si>
-    <t>The outside bar seating was unclean and the tables had not been cleared empty glasses and bottles on tables</t>
-  </si>
-  <si>
     <t>The outside bar seating was  &lt;em&gt;unclean&lt;/em&gt;  and the tables had not been cleared empty glasses and bottles on tables</t>
   </si>
   <si>
-    <t>The hallway to the rooms have a sensation of unclean</t>
-  </si>
-  <si>
     <t xml:space="preserve">The hallway to the rooms have a sensation of  &lt;em&gt;unclean&lt;/em&gt; </t>
   </si>
   <si>
-    <t>room was dark and unclean and toilet broken</t>
-  </si>
-  <si>
     <t>room was dark and  &lt;em&gt;unclean&lt;/em&gt;  and toilet broken</t>
   </si>
   <si>
-    <t>Old and unclean furniture</t>
-  </si>
-  <si>
     <t>Old and  &lt;em&gt;unclean&lt;/em&gt;  furniture</t>
   </si>
   <si>
-    <t>rooms are tiny dated and unclean</t>
-  </si>
-  <si>
     <t xml:space="preserve">rooms are tiny dated and  &lt;em&gt;unclean&lt;/em&gt; </t>
   </si>
   <si>
-    <t>Lack of cleaning dust and a sticky and unclean floor</t>
-  </si>
-  <si>
     <t>Lack of cleaning dust and a sticky and  &lt;em&gt;unclean&lt;/em&gt;  floor</t>
   </si>
   <si>
-    <t>Carpet were stained and unclean</t>
-  </si>
-  <si>
     <t xml:space="preserve">Carpet were stained and  &lt;em&gt;unclean&lt;/em&gt; </t>
   </si>
   <si>
-    <t>Not unclean but stained old carpet</t>
-  </si>
-  <si>
     <t>Not  &lt;em&gt;unclean&lt;/em&gt;  but stained old carpet</t>
   </si>
   <si>
-    <t>Baby bed dirty and unclean</t>
-  </si>
-  <si>
     <t xml:space="preserve">Baby bed dirty and  &lt;em&gt;unclean&lt;/em&gt; </t>
   </si>
   <si>
-    <t>Unclean carpets on 5th floor corridor</t>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;em&gt;Unclean&lt;/em&gt;  carpets on 5th floor corridor</t>
   </si>
   <si>
-    <t>Dishes were many times unclean or smelled of egg</t>
-  </si>
-  <si>
     <t>Dishes were many times  &lt;em&gt;unclean&lt;/em&gt;  or smelled of egg</t>
   </si>
   <si>
-    <t>The sink was very unclean</t>
-  </si>
-  <si>
     <t xml:space="preserve">The sink was very  &lt;em&gt;unclean&lt;/em&gt; </t>
   </si>
   <si>
-    <t>The bathroom felt a little tired the grouting was extremely discoloured and whilst I m sure this is down to age it made the bathroom feel slightly unclean</t>
-  </si>
-  <si>
     <t xml:space="preserve">The bathroom felt a little tired the grouting was extremely discoloured and whilst I m sure this is down to age it made the bathroom feel slightly  &lt;em&gt;unclean&lt;/em&gt; </t>
   </si>
   <si>
-    <t>Unfortunately my room was very very dusty to the point of sneezing and hands feeling chalky and unclean after touching everything</t>
-  </si>
-  <si>
     <t>Unfortunately my room was very very dusty to the point of sneezing and hands feeling chalky and  &lt;em&gt;unclean&lt;/em&gt;  after touching everything</t>
   </si>
   <si>
-    <t>It was probably the Worst Hotel I have ever stayed in So small unclean and tatty</t>
-  </si>
-  <si>
     <t>It was probably the Worst Hotel I have ever stayed in So small  &lt;em&gt;unclean&lt;/em&gt;  and tatty</t>
   </si>
   <si>
-    <t>the room has chipping and unclean spaces and smell overall</t>
-  </si>
-  <si>
     <t>the room has chipping and  &lt;em&gt;unclean&lt;/em&gt;  spaces and smell overall</t>
   </si>
   <si>
-    <t>the street is unclean and unsafe for families</t>
-  </si>
-  <si>
     <t>the street is  &lt;em&gt;unclean&lt;/em&gt;  and unsafe for families</t>
   </si>
   <si>
-    <t>When I told reception I was unhappy with my room and it was unclean they said sorry</t>
-  </si>
-  <si>
     <t>When I told reception I was unhappy with my room and it was  &lt;em&gt;unclean&lt;/em&gt;  they said sorry</t>
   </si>
   <si>
-    <t>Rooms are small and unclean</t>
-  </si>
-  <si>
     <t xml:space="preserve">Rooms are small and  &lt;em&gt;unclean&lt;/em&gt; </t>
   </si>
   <si>
-    <t>The bar area also dated and unclean with sub standard furniture and service</t>
-  </si>
-  <si>
     <t>The bar area also dated and  &lt;em&gt;unclean&lt;/em&gt;  with sub standard furniture and service</t>
   </si>
   <si>
-    <t>one of the pillows was filthy</t>
-  </si>
-  <si>
     <t xml:space="preserve">one of the pillows was  &lt;em&gt;filthy&lt;/em&gt; </t>
   </si>
   <si>
-    <t>The room was overall filthy</t>
-  </si>
-  <si>
     <t xml:space="preserve">The room was overall  &lt;em&gt;filthy&lt;/em&gt; </t>
   </si>
   <si>
-    <t>Small room filthy curtains</t>
-  </si>
-  <si>
     <t>Small room  &lt;em&gt;filthy&lt;/em&gt;  curtains</t>
   </si>
   <si>
-    <t>Windows filthy and a tiny bath with a tiny TV</t>
-  </si>
-  <si>
     <t>Windows  &lt;em&gt;filthy&lt;/em&gt;  and a tiny bath with a tiny TV</t>
   </si>
   <si>
-    <t>the hotel room was filthy and infested with bugs</t>
-  </si>
-  <si>
     <t>the hotel room was  &lt;em&gt;filthy&lt;/em&gt;  and infested with bugs</t>
   </si>
   <si>
-    <t>The window was filthy and all the knobs on the furniture were either broken or loose</t>
-  </si>
-  <si>
     <t>The window was  &lt;em&gt;filthy&lt;/em&gt;  and all the knobs on the furniture were either broken or loose</t>
   </si>
   <si>
-    <t>the filthy windows which were so dirty you couldn t see out of them</t>
-  </si>
-  <si>
     <t>the  &lt;em&gt;filthy&lt;/em&gt;  windows which were so dirty you couldn t see out of them</t>
   </si>
   <si>
-    <t>The mattress on the sofa bed in the studio was filthy with at least five horrid blood stains</t>
-  </si>
-  <si>
     <t>The mattress on the sofa bed in the studio was  &lt;em&gt;filthy&lt;/em&gt;  with at least five horrid blood stains</t>
   </si>
   <si>
-    <t>the chair in 403 was disgustig filthy</t>
-  </si>
-  <si>
     <t xml:space="preserve">the chair in 403 was disgustig  &lt;em&gt;filthy&lt;/em&gt; </t>
   </si>
   <si>
-    <t>the filthy sheer curtains in my room and the tiny night stands</t>
-  </si>
-  <si>
     <t>the  &lt;em&gt;filthy&lt;/em&gt;  sheer curtains in my room and the tiny night stands</t>
   </si>
   <si>
-    <t>Exterior bedroom doors were filthy and everywhere looked like it was in need of a good clean redecoration and some tlc</t>
-  </si>
-  <si>
     <t>Exterior bedroom doors were  &lt;em&gt;filthy&lt;/em&gt;  and everywhere looked like it was in need of a good clean redecoration and some tlc</t>
   </si>
   <si>
-    <t>It lacked atmosphere and the carpet was filthy especially around the Windows</t>
-  </si>
-  <si>
     <t>It lacked atmosphere and the carpet was  &lt;em&gt;filthy&lt;/em&gt;  especially around the Windows</t>
   </si>
   <si>
-    <t>The courtyard area where the room looked out on was filthy also with garbage laying outside</t>
-  </si>
-  <si>
     <t>The courtyard area where the room looked out on was  &lt;em&gt;filthy&lt;/em&gt;  also with garbage laying outside</t>
   </si>
   <si>
-    <t>It was really run down and just kinda filthy</t>
-  </si>
-  <si>
     <t xml:space="preserve">It was really run down and just kinda  &lt;em&gt;filthy&lt;/em&gt; </t>
   </si>
   <si>
-    <t>We had to report that bedtime had long black hairs on it tea cups and saucers were filthy</t>
-  </si>
-  <si>
     <t xml:space="preserve">We had to report that bedtime had long black hairs on it tea cups and saucers were  &lt;em&gt;filthy&lt;/em&gt; </t>
   </si>
   <si>
-    <t>Very understaffed and the pool was filthy and an added charge</t>
-  </si>
-  <si>
     <t>Very understaffed and the pool was  &lt;em&gt;filthy&lt;/em&gt;  and an added charge</t>
   </si>
   <si>
-    <t>the balcony was filthy and the room small</t>
-  </si>
-  <si>
     <t>the balcony was  &lt;em&gt;filthy&lt;/em&gt;  and the room small</t>
   </si>
   <si>
-    <t>the room was filthy with tea stains up the wall</t>
-  </si>
-  <si>
     <t>the room was  &lt;em&gt;filthy&lt;/em&gt;  with tea stains up the wall</t>
   </si>
   <si>
-    <t>Carpet was absolutely filthy dirty and badly stained did not want to take my shoes off</t>
-  </si>
-  <si>
     <t>Carpet was absolutely  &lt;em&gt;filthy&lt;/em&gt;  dirty and badly stained did not want to take my shoes off</t>
   </si>
   <si>
-    <t>The carpet in the first room was filthy the second was fine</t>
-  </si>
-  <si>
     <t>The carpet in the first room was  &lt;em&gt;filthy&lt;/em&gt;  the second was fine</t>
   </si>
   <si>
-    <t>Car park floor was filthy rough concrete and dust</t>
-  </si>
-  <si>
     <t>Car park floor was  &lt;em&gt;filthy&lt;/em&gt;  rough concrete and dust</t>
   </si>
   <si>
-    <t>The bed headboard was the worst of all filthy brown stains</t>
-  </si>
-  <si>
     <t>The bed headboard was the worst of all  &lt;em&gt;filthy&lt;/em&gt;  brown stains</t>
   </si>
   <si>
-    <t>The net curtains were filthy</t>
-  </si>
-  <si>
     <t xml:space="preserve">The net curtains were  &lt;em&gt;filthy&lt;/em&gt; </t>
   </si>
   <si>
-    <t>View from room was awful air con units and filthy yard</t>
-  </si>
-  <si>
     <t>View from room was awful air con units and  &lt;em&gt;filthy&lt;/em&gt;  yard</t>
   </si>
   <si>
-    <t>Crockery available to be utilised were filthy as if they had been washed in cold greasy water</t>
-  </si>
-  <si>
     <t>Crockery available to be utilised were  &lt;em&gt;filthy&lt;/em&gt;  as if they had been washed in cold greasy water</t>
   </si>
   <si>
-    <t>I contacted your office by email to discuss a refund for one night because the facility had a filthy room</t>
-  </si>
-  <si>
     <t>I contacted your office by email to discuss a refund for one night because the facility had a  &lt;em&gt;filthy&lt;/em&gt;  room</t>
   </si>
   <si>
-    <t>The entrance is good but you enter via filthy doors and a very busy and unwelcoming reception</t>
-  </si>
-  <si>
     <t>The entrance is good but you enter via  &lt;em&gt;filthy&lt;/em&gt;  doors and a very busy and unwelcoming reception</t>
   </si>
   <si>
-    <t>when I got in the room the windows were absolutely filthy could hardly see through them</t>
-  </si>
-  <si>
     <t>when I got in the room the windows were absolutely  &lt;em&gt;filthy&lt;/em&gt;  could hardly see through them</t>
   </si>
   <si>
-    <t>Nothing it was a filthy hell hole</t>
-  </si>
-  <si>
     <t>Nothing it was a  &lt;em&gt;filthy&lt;/em&gt;  hell hole</t>
   </si>
   <si>
-    <t>The front area of the bar is filthy and this couldn t have been a one off when the restaurant was this busy so other guests would end up sitting where we sat looking at a dirty looking pub</t>
-  </si>
-  <si>
     <t>The front area of the bar is  &lt;em&gt;filthy&lt;/em&gt;  and this couldn t have been a one off when the restaurant was this busy so other guests would end up sitting where we sat looking at a dirty looking pub</t>
   </si>
   <si>
-    <t>Did not care about dilapidated filthy moldy hotel</t>
-  </si>
-  <si>
     <t>Did not care about dilapidated  &lt;em&gt;filthy&lt;/em&gt;  moldy hotel</t>
   </si>
   <si>
-    <t>Especially the spaces between the tiles in the shower are often a bit filthy but in this case nothing at all</t>
-  </si>
-  <si>
     <t>Especially the spaces between the tiles in the shower are often a bit  &lt;em&gt;filthy&lt;/em&gt;  but in this case nothing at all</t>
   </si>
   <si>
-    <t>The room stank of raw sewage from the bathroom there was no kettle and the room 101 was generally filthy</t>
-  </si>
-  <si>
     <t xml:space="preserve">The room stank of raw sewage from the bathroom there was no kettle and the room 101 was generally  &lt;em&gt;filthy&lt;/em&gt; </t>
   </si>
   <si>
-    <t>Stains on carpet and filthy shower</t>
-  </si>
-  <si>
     <t>Stains on carpet and  &lt;em&gt;filthy&lt;/em&gt;  shower</t>
   </si>
   <si>
-    <t>The room was smelly and filthy with mould in the bathroom</t>
-  </si>
-  <si>
     <t>The room was smelly and  &lt;em&gt;filthy&lt;/em&gt;  with mould in the bathroom</t>
   </si>
   <si>
-    <t>The hotel was very dated the rooms were to small and the balcony was filthy</t>
-  </si>
-  <si>
     <t xml:space="preserve">The hotel was very dated the rooms were to small and the balcony was  &lt;em&gt;filthy&lt;/em&gt; </t>
   </si>
   <si>
-    <t>Shower corners were filthy</t>
-  </si>
-  <si>
     <t xml:space="preserve">Shower corners were  &lt;em&gt;filthy&lt;/em&gt; </t>
   </si>
   <si>
-    <t>The back of this was so filthy with old water stains and mould it was clear that this was a long term problem which they had no intention of fixing</t>
-  </si>
-  <si>
     <t>The back of this was so  &lt;em&gt;filthy&lt;/em&gt;  with old water stains and mould it was clear that this was a long term problem which they had no intention of fixing</t>
   </si>
   <si>
-    <t>The tables in reception were filthy</t>
-  </si>
-  <si>
     <t xml:space="preserve">The tables in reception were  &lt;em&gt;filthy&lt;/em&gt; </t>
   </si>
   <si>
-    <t>Bathroom was filthy with black mould grime in the sink and filthy glasses</t>
-  </si>
-  <si>
     <t>Bathroom was  &lt;em&gt;filthy&lt;/em&gt;  with black mould grime in the sink and  &lt;em&gt;filthy&lt;/em&gt;  glasses</t>
   </si>
   <si>
-    <t>Stairs leading to changing rooms and pool were filthy</t>
-  </si>
-  <si>
     <t xml:space="preserve">Stairs leading to changing rooms and pool were  &lt;em&gt;filthy&lt;/em&gt; </t>
   </si>
   <si>
-    <t>The windows in the downstairs bar were absolutely filthy</t>
-  </si>
-  <si>
     <t xml:space="preserve">The windows in the downstairs bar were absolutely  &lt;em&gt;filthy&lt;/em&gt; </t>
   </si>
   <si>
-    <t>The rooms was dreadful too hot and stuffy crammed with dreadful furniture that was ruined and a filthy stained carpet</t>
-  </si>
-  <si>
     <t>The rooms was dreadful too hot and stuffy crammed with dreadful furniture that was ruined and a  &lt;em&gt;filthy&lt;/em&gt;  stained carpet</t>
   </si>
   <si>
-    <t>The wall paper in the room was filthy and ripped</t>
-  </si>
-  <si>
     <t>The wall paper in the room was  &lt;em&gt;filthy&lt;/em&gt;  and ripped</t>
   </si>
   <si>
-    <t>Hotel very tired and windows filthy</t>
-  </si>
-  <si>
     <t xml:space="preserve">Hotel very tired and windows  &lt;em&gt;filthy&lt;/em&gt; </t>
   </si>
   <si>
-    <t>Spa pool area was filthy and dated</t>
-  </si>
-  <si>
     <t>Spa pool area was  &lt;em&gt;filthy&lt;/em&gt;  and dated</t>
   </si>
   <si>
-    <t>The gym was filthy with dirty walls</t>
-  </si>
-  <si>
     <t>The gym was  &lt;em&gt;filthy&lt;/em&gt;  with dirty walls</t>
   </si>
   <si>
-    <t>The swimming pool is an extra 4 per person and it s absolutely filthy</t>
-  </si>
-  <si>
     <t xml:space="preserve">The swimming pool is an extra 4 per person and it s absolutely  &lt;em&gt;filthy&lt;/em&gt; </t>
   </si>
   <si>
-    <t>Net curtains filthy and not hung properly</t>
-  </si>
-  <si>
     <t>Net curtains  &lt;em&gt;filthy&lt;/em&gt;  and not hung properly</t>
   </si>
   <si>
-    <t>The room was filthy with old food in the fridge</t>
-  </si>
-  <si>
     <t>The room was  &lt;em&gt;filthy&lt;/em&gt;  with old food in the fridge</t>
   </si>
   <si>
-    <t>My room was dirty and I was afraid to walk barefoot on the floor which looked as if it was not cleaned in weeks</t>
-  </si>
-  <si>
     <t>My room was  &lt;em&gt;dirty&lt;/em&gt;  and I was afraid to walk barefoot on the floor which looked as if it was not cleaned in weeks</t>
   </si>
   <si>
-    <t>hite furniture which looked nice in pictures was dirty too and the door looked like it was attacked by an angry dog</t>
-  </si>
-  <si>
     <t>hite furniture which looked nice in pictures was  &lt;em&gt;dirty&lt;/em&gt;  too and the door looked like it was attacked by an angry dog</t>
   </si>
   <si>
-    <t>Overall the second floor of the property looked dirty and badly kept</t>
-  </si>
-  <si>
     <t>Overall the second floor of the property looked  &lt;em&gt;dirty&lt;/em&gt;  and badly kept</t>
   </si>
   <si>
     <t>Even though the pictures show very clean rooms the actual room was quit  &lt;em&gt;dirty&lt;/em&gt;  and outlived</t>
   </si>
   <si>
-    <t>The floor in my room was filfy dirty</t>
-  </si>
-  <si>
     <t xml:space="preserve">The floor in my room was filfy  &lt;em&gt;dirty&lt;/em&gt; </t>
   </si>
   <si>
-    <t>We found the whole hotel dirty dusty and dated</t>
-  </si>
-  <si>
     <t>We found the whole hotel  &lt;em&gt;dirty&lt;/em&gt;  dusty and dated</t>
   </si>
   <si>
-    <t>To spend more then 243 Euros for a dirty attic room is daylight robbery</t>
-  </si>
-  <si>
     <t>To spend more then 243 Euros for a  &lt;em&gt;dirty&lt;/em&gt;  attic room is daylight robbery</t>
   </si>
   <si>
-    <t>Champagne glasses left dirty in the room</t>
-  </si>
-  <si>
     <t>Champagne glasses left  &lt;em&gt;dirty&lt;/em&gt;  in the room</t>
   </si>
   <si>
-    <t>The sink in the bathroom was very dirty when I got the room</t>
-  </si>
-  <si>
     <t>The sink in the bathroom was very  &lt;em&gt;dirty&lt;/em&gt;  when I got the room</t>
   </si>
   <si>
-    <t>the floors in the room looked a little dirty and our room smelt very bad of dirty drains so bad we actually moved rooms</t>
-  </si>
-  <si>
     <t>the floors in the room looked a little  &lt;em&gt;dirty&lt;/em&gt;  and our room smelt very bad of  &lt;em&gt;dirty&lt;/em&gt;  drains so bad we actually moved rooms</t>
   </si>
   <si>
-    <t>Room particularly bathroom was a bit dirty when we arrived</t>
-  </si>
-  <si>
     <t>Room particularly bathroom was a bit  &lt;em&gt;dirty&lt;/em&gt;  when we arrived</t>
   </si>
   <si>
-    <t>The rooms were cleaned daily fresh towels etc but the linen on the bed was not changed and had dirty marks on it</t>
-  </si>
-  <si>
     <t>The rooms were cleaned daily fresh towels etc but the linen on the bed was not changed and had  &lt;em&gt;dirty&lt;/em&gt;  marks on it</t>
   </si>
   <si>
-    <t>There were two pair of dirty underwear behind a desk chair</t>
-  </si>
-  <si>
     <t>There were two pair of  &lt;em&gt;dirty&lt;/em&gt;  underwear behind a desk chair</t>
   </si>
   <si>
-    <t>Dirty bed sheets cannot be justified no matter how nice the staff were</t>
-  </si>
-  <si>
     <t xml:space="preserve"> &lt;em&gt;Dirty&lt;/em&gt;  bed sheets cannot be justified no matter how nice the staff were</t>
   </si>
   <si>
-    <t>Rooms were extremely small very dirty with lots of dust everywhere</t>
-  </si>
-  <si>
     <t>Rooms were extremely small very  &lt;em&gt;dirty&lt;/em&gt;  with lots of dust everywhere</t>
   </si>
   <si>
-    <t>The bathroom towels were dirty and we had to request new ones be provided</t>
-  </si>
-  <si>
     <t>The bathroom towels were  &lt;em&gt;dirty&lt;/em&gt;  and we had to request new ones be provided</t>
   </si>
   <si>
-    <t>found nail clippings on the floor by the bed and also a dirty extension lead that was left in there by a guest before</t>
-  </si>
-  <si>
     <t>found nail clippings on the floor by the bed and also a  &lt;em&gt;dirty&lt;/em&gt;  extension lead that was left in there by a guest before</t>
   </si>
   <si>
-    <t>Shower was dirty had mould all over it and no pressure</t>
-  </si>
-  <si>
     <t>Shower was  &lt;em&gt;dirty&lt;/em&gt;  had mould all over it and no pressure</t>
   </si>
   <si>
-    <t>Carpet in the room was dirty from the day we checked in</t>
-  </si>
-  <si>
     <t>Carpet in the room was  &lt;em&gt;dirty&lt;/em&gt;  from the day we checked in</t>
   </si>
   <si>
-    <t>We had a deluxe double room that on initial entry was dirty and in a poor state</t>
-  </si>
-  <si>
     <t>We had a deluxe double room that on initial entry was  &lt;em&gt;dirty&lt;/em&gt;  and in a poor state</t>
   </si>
   <si>
-    <t>Room very nice but unfortunately the bed was quite dirty</t>
-  </si>
-  <si>
     <t xml:space="preserve">Room very nice but unfortunately the bed was quite  &lt;em&gt;dirty&lt;/em&gt; </t>
   </si>
   <si>
-    <t>Room was very small and the bed seemed to still be dirty after it had been cleaned</t>
-  </si>
-  <si>
     <t>Room was very small and the bed seemed to still be  &lt;em&gt;dirty&lt;/em&gt;  after it had been cleaned</t>
   </si>
   <si>
-    <t>Small dirty room and advertised closer to attraction than reality</t>
-  </si>
-  <si>
     <t>Small  &lt;em&gt;dirty&lt;/em&gt;  room and advertised closer to attraction than reality</t>
   </si>
   <si>
-    <t>Place is really old cramped and dirty even dirtier than London in general</t>
-  </si>
-  <si>
     <t>Place is really old cramped and  &lt;em&gt;dirty&lt;/em&gt;  even dirtier than London in general</t>
   </si>
   <si>
-    <t>My room was cancelled a few days before and I was given a room with a poor view but what made it worse was the fact the windows were dreadfully dirty and it was only the second floor made the room grubby</t>
-  </si>
-  <si>
     <t>My room was cancelled a few days before and I was given a room with a poor view but what made it worse was the fact the windows were dreadfully  &lt;em&gt;dirty&lt;/em&gt;  and it was only the second floor made the room grubby</t>
   </si>
   <si>
-    <t>Plates were dirty with dried on food and when told about this the guy behind the buffet just gave me another plate also dirty with no apology</t>
-  </si>
-  <si>
     <t>Plates were  &lt;em&gt;dirty&lt;/em&gt;  with dried on food and when told about this the guy behind the buffet just gave me another plate also  &lt;em&gt;dirty&lt;/em&gt;  with no apology</t>
   </si>
   <si>
-    <t>Not impeccably clean but not what I d call dirty either</t>
-  </si>
-  <si>
     <t>Not impeccably clean but not what I d call  &lt;em&gt;dirty&lt;/em&gt;  either</t>
   </si>
   <si>
-    <t>Quick response to change my room when I had been given a dirty grotty tired run down room which I had upgraded to deluxe</t>
-  </si>
-  <si>
     <t>Quick response to change my room when I had been given a  &lt;em&gt;dirty&lt;/em&gt;  grotty tired run down room which I had upgraded to deluxe</t>
   </si>
   <si>
-    <t>The bedroom walls were all dirty and the trim needed a paint job</t>
-  </si>
-  <si>
     <t>The bedroom walls were all  &lt;em&gt;dirty&lt;/em&gt;  and the trim needed a paint job</t>
   </si>
   <si>
-    <t>Nothing it was loud dirty and awfull</t>
-  </si>
-  <si>
     <t>Nothing it was loud  &lt;em&gt;dirty&lt;/em&gt;  and awfull</t>
   </si>
   <si>
-    <t>The lobby with glass ceiling makes great impression but the dirty sofas carpets etc takes all the good vibe</t>
-  </si>
-  <si>
     <t>The lobby with glass ceiling makes great impression but the  &lt;em&gt;dirty&lt;/em&gt;  sofas carpets etc takes all the good vibe</t>
   </si>
   <si>
-    <t>The views were stunning though for a London girl who remembers the area when it was run down and dirty and the hotel when it was the public Library it was a bit surreal</t>
-  </si>
-  <si>
     <t>The views were stunning though for a London girl who remembers the area when it was run down and  &lt;em&gt;dirty&lt;/em&gt;  and the hotel when it was the public Library it was a bit surreal</t>
   </si>
   <si>
-    <t>The bathroom very clean and no mold or dirty corners</t>
-  </si>
-  <si>
     <t>The bathroom very clean and no mold or  &lt;em&gt;dirty&lt;/em&gt;  corners</t>
   </si>
   <si>
-    <t>The staff are horrendous and the rooms were dirty</t>
-  </si>
-  <si>
     <t xml:space="preserve">The staff are horrendous and the rooms were  &lt;em&gt;dirty&lt;/em&gt; </t>
   </si>
   <si>
-    <t>Rather close to city center but its very loud and dirty district too</t>
-  </si>
-  <si>
     <t>Rather close to city center but its very loud and  &lt;em&gt;dirty&lt;/em&gt;  district too</t>
   </si>
   <si>
-    <t>The breakfast was pretty bad the eggs overcooked not runny the tomatoes waterlogged and the juice containers appeared dirty and had drip tray saucers underneath</t>
-  </si>
-  <si>
     <t>The breakfast was pretty bad the eggs overcooked not runny the tomatoes waterlogged and the juice containers appeared  &lt;em&gt;dirty&lt;/em&gt;  and had drip tray saucers underneath</t>
   </si>
   <si>
-    <t>We were travelling internationally so would have been ideal to leave with no dirty laundry</t>
-  </si>
-  <si>
     <t>We were travelling internationally so would have been ideal to leave with no  &lt;em&gt;dirty&lt;/em&gt;  laundry</t>
   </si>
   <si>
-    <t>The room was so dirty and lots of mold fungi wall</t>
-  </si>
-  <si>
     <t>The room was so  &lt;em&gt;dirty&lt;/em&gt;  and lots of mold fungi wall</t>
   </si>
   <si>
-    <t>The hotel is in a nice location but the main enterance glass doors need cleaning as it is so dirty and make it look like the hotel it self is not clean</t>
-  </si>
-  <si>
     <t>The hotel is in a nice location but the main enterance glass doors need cleaning as it is so  &lt;em&gt;dirty&lt;/em&gt;  and make it look like the hotel it self is not clean</t>
   </si>
   <si>
-    <t>The floor was dirty in the bathroom</t>
-  </si>
-  <si>
     <t>The floor was  &lt;em&gt;dirty&lt;/em&gt;  in the bathroom</t>
   </si>
   <si>
-    <t>The view was the best however the window was so dirty that I could not see clearly thru the window</t>
-  </si>
-  <si>
     <t>The view was the best however the window was so  &lt;em&gt;dirty&lt;/em&gt;  that I could not see clearly thru the window</t>
   </si>
   <si>
-    <t>Also the room had 3 towels for two people of which one was dirty and only a hand towel</t>
-  </si>
-  <si>
     <t>Also the room had 3 towels for two people of which one was  &lt;em&gt;dirty&lt;/em&gt;  and only a hand towel</t>
   </si>
   <si>
-    <t>Awful run down dirty avoid</t>
-  </si>
-  <si>
     <t>Awful run down  &lt;em&gt;dirty&lt;/em&gt;  avoid</t>
   </si>
   <si>
-    <t>Furniture was a bit tired and carpet was dirty</t>
-  </si>
-  <si>
     <t xml:space="preserve">Furniture was a bit tired and carpet was  &lt;em&gt;dirty&lt;/em&gt; </t>
   </si>
   <si>
-    <t>Nothing was dirty old fashioned and just vile</t>
-  </si>
-  <si>
     <t>Nothing was  &lt;em&gt;dirty&lt;/em&gt;  old fashioned and just vile</t>
   </si>
   <si>
-    <t>Everything was fine with the room except the sheet was dirty on the bed</t>
-  </si>
-  <si>
     <t>Everything was fine with the room except the sheet was  &lt;em&gt;dirty&lt;/em&gt;  on the bed</t>
   </si>
   <si>
-    <t>Avoid the quaint Victorian places they are not charming just cramped often dirty and lacking any comforts</t>
-  </si>
-  <si>
     <t>Avoid the quaint Victorian places they are not charming just cramped often  &lt;em&gt;dirty&lt;/em&gt;  and lacking any comforts</t>
   </si>
   <si>
-    <t>Breakfast was terrible tasteless and cutlery was dirty tasted like it had been cooked old dirty fat</t>
-  </si>
-  <si>
     <t>Breakfast was terrible tasteless and cutlery was  &lt;em&gt;dirty&lt;/em&gt;  tasted like it had been cooked old  &lt;em&gt;dirty&lt;/em&gt;  fat</t>
   </si>
   <si>
-    <t>The standard room was very small and the rooms needed to be refreshed paint was coming off and was kind of dirty</t>
-  </si>
-  <si>
     <t xml:space="preserve">The standard room was very small and the rooms needed to be refreshed paint was coming off and was kind of  &lt;em&gt;dirty&lt;/em&gt; </t>
   </si>
   <si>
-    <t>It was a dirty dump</t>
-  </si>
-  <si>
     <t>It was a  &lt;em&gt;dirty&lt;/em&gt;  dump</t>
   </si>
   <si>
     <t>idx</t>
+  </si>
+  <si>
+    <t>sense_label</t>
+  </si>
+  <si>
+    <t>word_label</t>
   </si>
 </sst>
 </file>
@@ -1631,59 +1034,59 @@
   <dimension ref="A1:P201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2:C201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>414</v>
+        <v>213</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>214</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
@@ -1691,10 +1094,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" t="s">
-        <v>16</v>
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -1741,10 +1144,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" t="s">
-        <v>18</v>
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -1791,10 +1194,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1841,10 +1244,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -1891,10 +1294,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
       </c>
       <c r="D6">
         <v>0</v>
@@ -1941,10 +1344,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -1991,10 +1394,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2041,10 +1444,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>30</v>
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2091,10 +1494,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s">
-        <v>32</v>
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2141,10 +1544,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" t="s">
-        <v>34</v>
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2191,10 +1594,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" t="s">
-        <v>36</v>
+        <v>23</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2241,10 +1644,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
+        <v>24</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2291,10 +1694,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" t="s">
-        <v>40</v>
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2341,10 +1744,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" t="s">
-        <v>42</v>
+        <v>26</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2391,10 +1794,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" t="s">
-        <v>44</v>
+        <v>27</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2441,10 +1844,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" t="s">
-        <v>46</v>
+        <v>28</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2491,10 +1894,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C18" t="s">
-        <v>48</v>
+        <v>29</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -2541,10 +1944,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" t="s">
-        <v>50</v>
+        <v>30</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -2591,10 +1994,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" t="s">
-        <v>52</v>
+        <v>31</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -2641,10 +2044,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>53</v>
-      </c>
-      <c r="C21" t="s">
-        <v>54</v>
+        <v>32</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -2691,10 +2094,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" t="s">
-        <v>56</v>
+        <v>33</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -2741,10 +2144,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" t="s">
-        <v>58</v>
+        <v>34</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -2791,10 +2194,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" t="s">
-        <v>60</v>
+        <v>35</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2841,10 +2244,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" t="s">
-        <v>62</v>
+        <v>36</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2891,10 +2294,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" t="s">
-        <v>64</v>
+        <v>37</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2941,10 +2344,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
-      </c>
-      <c r="C27" t="s">
-        <v>66</v>
+        <v>38</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2991,10 +2394,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" t="s">
-        <v>68</v>
+        <v>39</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -3041,10 +2444,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" t="s">
-        <v>70</v>
+        <v>40</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -3091,10 +2494,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" t="s">
-        <v>72</v>
+        <v>41</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -3141,10 +2544,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" t="s">
-        <v>74</v>
+        <v>42</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -3191,10 +2594,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" t="s">
-        <v>76</v>
+        <v>43</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -3241,10 +2644,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" t="s">
-        <v>78</v>
+        <v>44</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -3291,10 +2694,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" t="s">
-        <v>80</v>
+        <v>45</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
       </c>
       <c r="D34">
         <v>0</v>
@@ -3341,10 +2744,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
-      </c>
-      <c r="C35" t="s">
-        <v>82</v>
+        <v>46</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
       </c>
       <c r="D35">
         <v>0</v>
@@ -3391,10 +2794,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
-      </c>
-      <c r="C36" t="s">
-        <v>84</v>
+        <v>47</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -3441,10 +2844,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>85</v>
-      </c>
-      <c r="C37" t="s">
-        <v>86</v>
+        <v>48</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
       </c>
       <c r="D37">
         <v>0</v>
@@ -3491,10 +2894,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
-      </c>
-      <c r="C38" t="s">
-        <v>88</v>
+        <v>49</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
       </c>
       <c r="D38">
         <v>0</v>
@@ -3541,10 +2944,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>89</v>
-      </c>
-      <c r="C39" t="s">
-        <v>90</v>
+        <v>50</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
       </c>
       <c r="D39">
         <v>0</v>
@@ -3591,10 +2994,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
-      </c>
-      <c r="C40" t="s">
-        <v>92</v>
+        <v>51</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
       </c>
       <c r="D40">
         <v>0</v>
@@ -3641,10 +3044,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>93</v>
-      </c>
-      <c r="C41" t="s">
-        <v>94</v>
+        <v>52</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
       </c>
       <c r="D41">
         <v>0</v>
@@ -3691,10 +3094,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>95</v>
-      </c>
-      <c r="C42" t="s">
-        <v>96</v>
+        <v>53</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
       </c>
       <c r="D42">
         <v>0</v>
@@ -3741,10 +3144,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>97</v>
-      </c>
-      <c r="C43" t="s">
-        <v>98</v>
+        <v>54</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
       </c>
       <c r="D43">
         <v>0</v>
@@ -3791,10 +3194,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
-      </c>
-      <c r="C44" t="s">
-        <v>100</v>
+        <v>55</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
       </c>
       <c r="D44">
         <v>0</v>
@@ -3841,10 +3244,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>101</v>
-      </c>
-      <c r="C45" t="s">
-        <v>102</v>
+        <v>56</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
       </c>
       <c r="D45">
         <v>0</v>
@@ -3891,10 +3294,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>103</v>
-      </c>
-      <c r="C46" t="s">
-        <v>104</v>
+        <v>57</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
       </c>
       <c r="D46">
         <v>0</v>
@@ -3941,10 +3344,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>105</v>
-      </c>
-      <c r="C47" t="s">
-        <v>106</v>
+        <v>58</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
       </c>
       <c r="D47">
         <v>0</v>
@@ -3991,10 +3394,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>107</v>
-      </c>
-      <c r="C48" t="s">
-        <v>108</v>
+        <v>59</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
       </c>
       <c r="D48">
         <v>0</v>
@@ -4041,10 +3444,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>109</v>
-      </c>
-      <c r="C49" t="s">
-        <v>110</v>
+        <v>60</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
       </c>
       <c r="D49">
         <v>0</v>
@@ -4091,10 +3494,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>111</v>
-      </c>
-      <c r="C50" t="s">
-        <v>112</v>
+        <v>61</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
       </c>
       <c r="D50">
         <v>0</v>
@@ -4141,10 +3544,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>113</v>
-      </c>
-      <c r="C51" t="s">
-        <v>114</v>
+        <v>62</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
       </c>
       <c r="D51">
         <v>0</v>
@@ -4191,10 +3594,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>115</v>
-      </c>
-      <c r="C52" t="s">
-        <v>116</v>
+        <v>63</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -4241,10 +3644,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>117</v>
-      </c>
-      <c r="C53" t="s">
-        <v>118</v>
+        <v>64</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -4291,10 +3694,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>119</v>
-      </c>
-      <c r="C54" t="s">
-        <v>120</v>
+        <v>65</v>
+      </c>
+      <c r="C54">
+        <v>0</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -4341,10 +3744,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>121</v>
-      </c>
-      <c r="C55" t="s">
-        <v>122</v>
+        <v>66</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -4391,10 +3794,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>123</v>
-      </c>
-      <c r="C56" t="s">
-        <v>124</v>
+        <v>67</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -4441,10 +3844,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>125</v>
-      </c>
-      <c r="C57" t="s">
-        <v>126</v>
+        <v>68</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -4491,10 +3894,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>127</v>
-      </c>
-      <c r="C58" t="s">
-        <v>128</v>
+        <v>69</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -4541,10 +3944,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>129</v>
-      </c>
-      <c r="C59" t="s">
-        <v>130</v>
+        <v>70</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -4591,10 +3994,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>131</v>
-      </c>
-      <c r="C60" t="s">
-        <v>132</v>
+        <v>71</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -4641,10 +4044,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>133</v>
-      </c>
-      <c r="C61" t="s">
-        <v>134</v>
+        <v>72</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -4691,10 +4094,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>135</v>
-      </c>
-      <c r="C62" t="s">
-        <v>136</v>
+        <v>73</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -4741,10 +4144,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>137</v>
-      </c>
-      <c r="C63" t="s">
-        <v>138</v>
+        <v>74</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -4791,10 +4194,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>139</v>
-      </c>
-      <c r="C64" t="s">
-        <v>140</v>
+        <v>75</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -4841,10 +4244,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>141</v>
-      </c>
-      <c r="C65" t="s">
-        <v>142</v>
+        <v>76</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -4891,10 +4294,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>143</v>
-      </c>
-      <c r="C66" t="s">
-        <v>144</v>
+        <v>77</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -4941,10 +4344,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>145</v>
-      </c>
-      <c r="C67" t="s">
-        <v>146</v>
+        <v>78</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -4991,10 +4394,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>147</v>
-      </c>
-      <c r="C68" t="s">
-        <v>148</v>
+        <v>79</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -5041,10 +4444,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>149</v>
-      </c>
-      <c r="C69" t="s">
-        <v>150</v>
+        <v>80</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -5091,10 +4494,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>151</v>
-      </c>
-      <c r="C70" t="s">
-        <v>152</v>
+        <v>81</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -5141,10 +4544,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>153</v>
-      </c>
-      <c r="C71" t="s">
-        <v>154</v>
+        <v>82</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -5191,10 +4594,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>155</v>
-      </c>
-      <c r="C72" t="s">
-        <v>156</v>
+        <v>83</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -5241,10 +4644,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>157</v>
-      </c>
-      <c r="C73" t="s">
-        <v>158</v>
+        <v>84</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -5291,10 +4694,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>159</v>
-      </c>
-      <c r="C74" t="s">
-        <v>160</v>
+        <v>85</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -5341,10 +4744,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>161</v>
-      </c>
-      <c r="C75" t="s">
-        <v>162</v>
+        <v>86</v>
+      </c>
+      <c r="C75">
+        <v>0</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -5391,10 +4794,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>163</v>
-      </c>
-      <c r="C76" t="s">
-        <v>164</v>
+        <v>87</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -5441,10 +4844,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>165</v>
-      </c>
-      <c r="C77" t="s">
-        <v>166</v>
+        <v>88</v>
+      </c>
+      <c r="C77">
+        <v>0</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -5491,10 +4894,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>167</v>
-      </c>
-      <c r="C78" t="s">
-        <v>168</v>
+        <v>89</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -5541,10 +4944,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>169</v>
-      </c>
-      <c r="C79" t="s">
-        <v>170</v>
+        <v>90</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -5591,10 +4994,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>171</v>
-      </c>
-      <c r="C80" t="s">
-        <v>172</v>
+        <v>91</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -5641,10 +5044,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>173</v>
-      </c>
-      <c r="C81" t="s">
-        <v>174</v>
+        <v>92</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -5691,10 +5094,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>175</v>
-      </c>
-      <c r="C82" t="s">
-        <v>176</v>
+        <v>93</v>
+      </c>
+      <c r="C82">
+        <v>0</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -5741,10 +5144,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>177</v>
-      </c>
-      <c r="C83" t="s">
-        <v>178</v>
+        <v>94</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -5791,10 +5194,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>179</v>
-      </c>
-      <c r="C84" t="s">
-        <v>180</v>
+        <v>95</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
       </c>
       <c r="D84">
         <v>1</v>
@@ -5841,10 +5244,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>181</v>
-      </c>
-      <c r="C85" t="s">
-        <v>182</v>
+        <v>96</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -5891,10 +5294,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>183</v>
-      </c>
-      <c r="C86" t="s">
-        <v>184</v>
+        <v>97</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -5941,10 +5344,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>185</v>
-      </c>
-      <c r="C87" t="s">
-        <v>186</v>
+        <v>98</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -5991,10 +5394,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>187</v>
-      </c>
-      <c r="C88" t="s">
-        <v>188</v>
+        <v>99</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -6041,10 +5444,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>189</v>
-      </c>
-      <c r="C89" t="s">
-        <v>190</v>
+        <v>100</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -6091,10 +5494,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>191</v>
-      </c>
-      <c r="C90" t="s">
-        <v>192</v>
+        <v>101</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -6141,10 +5544,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>193</v>
-      </c>
-      <c r="C91" t="s">
-        <v>194</v>
+        <v>102</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -6191,10 +5594,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>195</v>
-      </c>
-      <c r="C92" t="s">
-        <v>196</v>
+        <v>103</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
       </c>
       <c r="D92">
         <v>1</v>
@@ -6241,10 +5644,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>197</v>
-      </c>
-      <c r="C93" t="s">
-        <v>198</v>
+        <v>104</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -6291,10 +5694,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>199</v>
-      </c>
-      <c r="C94" t="s">
-        <v>200</v>
+        <v>105</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -6341,10 +5744,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>201</v>
-      </c>
-      <c r="C95" t="s">
-        <v>202</v>
+        <v>106</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
       </c>
       <c r="D95">
         <v>1</v>
@@ -6391,10 +5794,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>203</v>
-      </c>
-      <c r="C96" t="s">
-        <v>204</v>
+        <v>107</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -6441,10 +5844,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>205</v>
-      </c>
-      <c r="C97" t="s">
-        <v>206</v>
+        <v>108</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -6491,10 +5894,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>207</v>
-      </c>
-      <c r="C98" t="s">
-        <v>208</v>
+        <v>109</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -6541,10 +5944,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>209</v>
-      </c>
-      <c r="C99" t="s">
-        <v>210</v>
+        <v>110</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -6591,10 +5994,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>211</v>
-      </c>
-      <c r="C100" t="s">
-        <v>212</v>
+        <v>111</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -6641,10 +6044,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>213</v>
-      </c>
-      <c r="C101" t="s">
-        <v>214</v>
+        <v>112</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -6691,10 +6094,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>215</v>
-      </c>
-      <c r="C102" t="s">
-        <v>216</v>
+        <v>113</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
       </c>
       <c r="D102">
         <v>2</v>
@@ -6741,10 +6144,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>217</v>
-      </c>
-      <c r="C103" t="s">
-        <v>218</v>
+        <v>114</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
       </c>
       <c r="D103">
         <v>2</v>
@@ -6791,10 +6194,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>219</v>
-      </c>
-      <c r="C104" t="s">
-        <v>220</v>
+        <v>115</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
       </c>
       <c r="D104">
         <v>2</v>
@@ -6841,10 +6244,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>221</v>
-      </c>
-      <c r="C105" t="s">
-        <v>222</v>
+        <v>116</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
       </c>
       <c r="D105">
         <v>2</v>
@@ -6891,10 +6294,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>223</v>
-      </c>
-      <c r="C106" t="s">
-        <v>224</v>
+        <v>117</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
       </c>
       <c r="D106">
         <v>2</v>
@@ -6941,10 +6344,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>225</v>
-      </c>
-      <c r="C107" t="s">
-        <v>226</v>
+        <v>118</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
       </c>
       <c r="D107">
         <v>2</v>
@@ -6991,10 +6394,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>227</v>
-      </c>
-      <c r="C108" t="s">
-        <v>228</v>
+        <v>119</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
       </c>
       <c r="D108">
         <v>2</v>
@@ -7041,10 +6444,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>229</v>
-      </c>
-      <c r="C109" t="s">
-        <v>230</v>
+        <v>120</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
       </c>
       <c r="D109">
         <v>2</v>
@@ -7091,10 +6494,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>231</v>
-      </c>
-      <c r="C110" t="s">
-        <v>232</v>
+        <v>121</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
       </c>
       <c r="D110">
         <v>2</v>
@@ -7141,10 +6544,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>233</v>
-      </c>
-      <c r="C111" t="s">
-        <v>234</v>
+        <v>122</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
       </c>
       <c r="D111">
         <v>2</v>
@@ -7191,10 +6594,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>235</v>
-      </c>
-      <c r="C112" t="s">
-        <v>236</v>
+        <v>123</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
       </c>
       <c r="D112">
         <v>2</v>
@@ -7241,10 +6644,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>237</v>
-      </c>
-      <c r="C113" t="s">
-        <v>238</v>
+        <v>124</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
       </c>
       <c r="D113">
         <v>2</v>
@@ -7291,10 +6694,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>239</v>
-      </c>
-      <c r="C114" t="s">
-        <v>240</v>
+        <v>125</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
       </c>
       <c r="D114">
         <v>2</v>
@@ -7341,10 +6744,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>241</v>
-      </c>
-      <c r="C115" t="s">
-        <v>242</v>
+        <v>126</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
       </c>
       <c r="D115">
         <v>2</v>
@@ -7391,10 +6794,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>243</v>
-      </c>
-      <c r="C116" t="s">
-        <v>244</v>
+        <v>127</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
       </c>
       <c r="D116">
         <v>2</v>
@@ -7441,10 +6844,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>245</v>
-      </c>
-      <c r="C117" t="s">
-        <v>246</v>
+        <v>128</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
       </c>
       <c r="D117">
         <v>2</v>
@@ -7491,10 +6894,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>247</v>
-      </c>
-      <c r="C118" t="s">
-        <v>248</v>
+        <v>129</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
       </c>
       <c r="D118">
         <v>2</v>
@@ -7541,10 +6944,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>249</v>
-      </c>
-      <c r="C119" t="s">
-        <v>250</v>
+        <v>130</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
       </c>
       <c r="D119">
         <v>2</v>
@@ -7591,10 +6994,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>251</v>
-      </c>
-      <c r="C120" t="s">
-        <v>252</v>
+        <v>131</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
       </c>
       <c r="D120">
         <v>2</v>
@@ -7641,10 +7044,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>253</v>
-      </c>
-      <c r="C121" t="s">
-        <v>254</v>
+        <v>132</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
       </c>
       <c r="D121">
         <v>2</v>
@@ -7691,10 +7094,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>255</v>
-      </c>
-      <c r="C122" t="s">
-        <v>256</v>
+        <v>133</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
       </c>
       <c r="D122">
         <v>2</v>
@@ -7741,10 +7144,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>257</v>
-      </c>
-      <c r="C123" t="s">
-        <v>258</v>
+        <v>134</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
       </c>
       <c r="D123">
         <v>2</v>
@@ -7791,10 +7194,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>259</v>
-      </c>
-      <c r="C124" t="s">
-        <v>260</v>
+        <v>135</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
       </c>
       <c r="D124">
         <v>2</v>
@@ -7841,10 +7244,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>261</v>
-      </c>
-      <c r="C125" t="s">
-        <v>262</v>
+        <v>136</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
       </c>
       <c r="D125">
         <v>2</v>
@@ -7891,10 +7294,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>263</v>
-      </c>
-      <c r="C126" t="s">
-        <v>264</v>
+        <v>137</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
       </c>
       <c r="D126">
         <v>2</v>
@@ -7941,10 +7344,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>265</v>
-      </c>
-      <c r="C127" t="s">
-        <v>266</v>
+        <v>138</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
       </c>
       <c r="D127">
         <v>2</v>
@@ -7991,10 +7394,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>267</v>
-      </c>
-      <c r="C128" t="s">
-        <v>268</v>
+        <v>139</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
       </c>
       <c r="D128">
         <v>2</v>
@@ -8041,10 +7444,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>269</v>
-      </c>
-      <c r="C129" t="s">
-        <v>270</v>
+        <v>140</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
       </c>
       <c r="D129">
         <v>2</v>
@@ -8091,10 +7494,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>271</v>
-      </c>
-      <c r="C130" t="s">
-        <v>272</v>
+        <v>141</v>
+      </c>
+      <c r="C130">
+        <v>0</v>
       </c>
       <c r="D130">
         <v>2</v>
@@ -8141,10 +7544,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>273</v>
-      </c>
-      <c r="C131" t="s">
-        <v>274</v>
+        <v>142</v>
+      </c>
+      <c r="C131">
+        <v>0</v>
       </c>
       <c r="D131">
         <v>2</v>
@@ -8191,10 +7594,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>275</v>
-      </c>
-      <c r="C132" t="s">
-        <v>276</v>
+        <v>143</v>
+      </c>
+      <c r="C132">
+        <v>0</v>
       </c>
       <c r="D132">
         <v>2</v>
@@ -8241,10 +7644,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>277</v>
-      </c>
-      <c r="C133" t="s">
-        <v>278</v>
+        <v>144</v>
+      </c>
+      <c r="C133">
+        <v>0</v>
       </c>
       <c r="D133">
         <v>2</v>
@@ -8291,10 +7694,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>279</v>
-      </c>
-      <c r="C134" t="s">
-        <v>280</v>
+        <v>145</v>
+      </c>
+      <c r="C134">
+        <v>0</v>
       </c>
       <c r="D134">
         <v>2</v>
@@ -8341,10 +7744,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>281</v>
-      </c>
-      <c r="C135" t="s">
-        <v>282</v>
+        <v>146</v>
+      </c>
+      <c r="C135">
+        <v>0</v>
       </c>
       <c r="D135">
         <v>2</v>
@@ -8391,10 +7794,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>283</v>
-      </c>
-      <c r="C136" t="s">
-        <v>284</v>
+        <v>147</v>
+      </c>
+      <c r="C136">
+        <v>0</v>
       </c>
       <c r="D136">
         <v>2</v>
@@ -8441,10 +7844,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>285</v>
-      </c>
-      <c r="C137" t="s">
-        <v>286</v>
+        <v>148</v>
+      </c>
+      <c r="C137">
+        <v>0</v>
       </c>
       <c r="D137">
         <v>2</v>
@@ -8491,10 +7894,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>287</v>
-      </c>
-      <c r="C138" t="s">
-        <v>288</v>
+        <v>149</v>
+      </c>
+      <c r="C138">
+        <v>0</v>
       </c>
       <c r="D138">
         <v>2</v>
@@ -8541,10 +7944,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>289</v>
-      </c>
-      <c r="C139" t="s">
-        <v>290</v>
+        <v>150</v>
+      </c>
+      <c r="C139">
+        <v>0</v>
       </c>
       <c r="D139">
         <v>2</v>
@@ -8591,10 +7994,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>291</v>
-      </c>
-      <c r="C140" t="s">
-        <v>292</v>
+        <v>151</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
       </c>
       <c r="D140">
         <v>2</v>
@@ -8641,10 +8044,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>293</v>
-      </c>
-      <c r="C141" t="s">
-        <v>294</v>
+        <v>152</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
       </c>
       <c r="D141">
         <v>2</v>
@@ -8691,10 +8094,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>295</v>
-      </c>
-      <c r="C142" t="s">
-        <v>296</v>
+        <v>153</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
       </c>
       <c r="D142">
         <v>2</v>
@@ -8741,10 +8144,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>297</v>
-      </c>
-      <c r="C143" t="s">
-        <v>298</v>
+        <v>154</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
       </c>
       <c r="D143">
         <v>2</v>
@@ -8791,10 +8194,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>299</v>
-      </c>
-      <c r="C144" t="s">
-        <v>300</v>
+        <v>155</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
       </c>
       <c r="D144">
         <v>2</v>
@@ -8841,10 +8244,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>301</v>
-      </c>
-      <c r="C145" t="s">
-        <v>302</v>
+        <v>156</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
       </c>
       <c r="D145">
         <v>2</v>
@@ -8891,10 +8294,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>303</v>
-      </c>
-      <c r="C146" t="s">
-        <v>304</v>
+        <v>157</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
       </c>
       <c r="D146">
         <v>2</v>
@@ -8941,10 +8344,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>305</v>
-      </c>
-      <c r="C147" t="s">
-        <v>306</v>
+        <v>158</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
       </c>
       <c r="D147">
         <v>2</v>
@@ -8991,10 +8394,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>307</v>
-      </c>
-      <c r="C148" t="s">
-        <v>308</v>
+        <v>159</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
       </c>
       <c r="D148">
         <v>2</v>
@@ -9041,10 +8444,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>309</v>
-      </c>
-      <c r="C149" t="s">
-        <v>310</v>
+        <v>160</v>
+      </c>
+      <c r="C149">
+        <v>0</v>
       </c>
       <c r="D149">
         <v>2</v>
@@ -9091,10 +8494,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>311</v>
-      </c>
-      <c r="C150" t="s">
-        <v>312</v>
+        <v>161</v>
+      </c>
+      <c r="C150">
+        <v>0</v>
       </c>
       <c r="D150">
         <v>2</v>
@@ -9141,10 +8544,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>313</v>
-      </c>
-      <c r="C151" t="s">
-        <v>314</v>
+        <v>162</v>
+      </c>
+      <c r="C151">
+        <v>0</v>
       </c>
       <c r="D151">
         <v>2</v>
@@ -9191,10 +8594,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>315</v>
-      </c>
-      <c r="C152" t="s">
-        <v>316</v>
+        <v>163</v>
+      </c>
+      <c r="C152">
+        <v>0</v>
       </c>
       <c r="D152">
         <v>3</v>
@@ -9241,10 +8644,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>317</v>
-      </c>
-      <c r="C153" t="s">
-        <v>318</v>
+        <v>164</v>
+      </c>
+      <c r="C153">
+        <v>0</v>
       </c>
       <c r="D153">
         <v>3</v>
@@ -9291,10 +8694,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>319</v>
-      </c>
-      <c r="C154" t="s">
-        <v>320</v>
+        <v>165</v>
+      </c>
+      <c r="C154">
+        <v>0</v>
       </c>
       <c r="D154">
         <v>3</v>
@@ -9341,10 +8744,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>65</v>
-      </c>
-      <c r="C155" t="s">
-        <v>321</v>
+        <v>166</v>
+      </c>
+      <c r="C155">
+        <v>0</v>
       </c>
       <c r="D155">
         <v>3</v>
@@ -9391,10 +8794,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>322</v>
-      </c>
-      <c r="C156" t="s">
-        <v>323</v>
+        <v>167</v>
+      </c>
+      <c r="C156">
+        <v>0</v>
       </c>
       <c r="D156">
         <v>3</v>
@@ -9441,10 +8844,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>324</v>
-      </c>
-      <c r="C157" t="s">
-        <v>325</v>
+        <v>168</v>
+      </c>
+      <c r="C157">
+        <v>0</v>
       </c>
       <c r="D157">
         <v>3</v>
@@ -9491,10 +8894,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>326</v>
-      </c>
-      <c r="C158" t="s">
-        <v>327</v>
+        <v>169</v>
+      </c>
+      <c r="C158">
+        <v>0</v>
       </c>
       <c r="D158">
         <v>3</v>
@@ -9541,10 +8944,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>328</v>
-      </c>
-      <c r="C159" t="s">
-        <v>329</v>
+        <v>170</v>
+      </c>
+      <c r="C159">
+        <v>0</v>
       </c>
       <c r="D159">
         <v>3</v>
@@ -9591,10 +8994,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>330</v>
-      </c>
-      <c r="C160" t="s">
-        <v>331</v>
+        <v>171</v>
+      </c>
+      <c r="C160">
+        <v>0</v>
       </c>
       <c r="D160">
         <v>3</v>
@@ -9641,10 +9044,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>332</v>
-      </c>
-      <c r="C161" t="s">
-        <v>333</v>
+        <v>172</v>
+      </c>
+      <c r="C161">
+        <v>0</v>
       </c>
       <c r="D161">
         <v>3</v>
@@ -9691,10 +9094,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>334</v>
-      </c>
-      <c r="C162" t="s">
-        <v>335</v>
+        <v>173</v>
+      </c>
+      <c r="C162">
+        <v>0</v>
       </c>
       <c r="D162">
         <v>3</v>
@@ -9741,10 +9144,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>336</v>
-      </c>
-      <c r="C163" t="s">
-        <v>337</v>
+        <v>174</v>
+      </c>
+      <c r="C163">
+        <v>0</v>
       </c>
       <c r="D163">
         <v>3</v>
@@ -9791,10 +9194,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>338</v>
-      </c>
-      <c r="C164" t="s">
-        <v>339</v>
+        <v>175</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
       </c>
       <c r="D164">
         <v>3</v>
@@ -9841,10 +9244,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>340</v>
-      </c>
-      <c r="C165" t="s">
-        <v>341</v>
+        <v>176</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
       </c>
       <c r="D165">
         <v>3</v>
@@ -9891,10 +9294,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>342</v>
-      </c>
-      <c r="C166" t="s">
-        <v>343</v>
+        <v>177</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
       </c>
       <c r="D166">
         <v>3</v>
@@ -9941,10 +9344,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>344</v>
-      </c>
-      <c r="C167" t="s">
-        <v>345</v>
+        <v>178</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
       </c>
       <c r="D167">
         <v>3</v>
@@ -9991,10 +9394,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>346</v>
-      </c>
-      <c r="C168" t="s">
-        <v>347</v>
+        <v>179</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
       </c>
       <c r="D168">
         <v>3</v>
@@ -10041,10 +9444,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>348</v>
-      </c>
-      <c r="C169" t="s">
-        <v>349</v>
+        <v>180</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
       </c>
       <c r="D169">
         <v>3</v>
@@ -10091,10 +9494,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>350</v>
-      </c>
-      <c r="C170" t="s">
-        <v>351</v>
+        <v>181</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
       </c>
       <c r="D170">
         <v>3</v>
@@ -10141,10 +9544,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>352</v>
-      </c>
-      <c r="C171" t="s">
-        <v>353</v>
+        <v>182</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
       </c>
       <c r="D171">
         <v>3</v>
@@ -10191,10 +9594,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>354</v>
-      </c>
-      <c r="C172" t="s">
-        <v>355</v>
+        <v>183</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
       </c>
       <c r="D172">
         <v>3</v>
@@ -10241,10 +9644,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>356</v>
-      </c>
-      <c r="C173" t="s">
-        <v>357</v>
+        <v>184</v>
+      </c>
+      <c r="C173">
+        <v>0</v>
       </c>
       <c r="D173">
         <v>3</v>
@@ -10291,10 +9694,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>358</v>
-      </c>
-      <c r="C174" t="s">
-        <v>359</v>
+        <v>185</v>
+      </c>
+      <c r="C174">
+        <v>0</v>
       </c>
       <c r="D174">
         <v>3</v>
@@ -10341,10 +9744,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>360</v>
-      </c>
-      <c r="C175" t="s">
-        <v>361</v>
+        <v>186</v>
+      </c>
+      <c r="C175">
+        <v>0</v>
       </c>
       <c r="D175">
         <v>3</v>
@@ -10391,10 +9794,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>362</v>
-      </c>
-      <c r="C176" t="s">
-        <v>363</v>
+        <v>187</v>
+      </c>
+      <c r="C176">
+        <v>0</v>
       </c>
       <c r="D176">
         <v>3</v>
@@ -10441,10 +9844,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>364</v>
-      </c>
-      <c r="C177" t="s">
-        <v>365</v>
+        <v>188</v>
+      </c>
+      <c r="C177">
+        <v>0</v>
       </c>
       <c r="D177">
         <v>3</v>
@@ -10491,10 +9894,10 @@
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>366</v>
-      </c>
-      <c r="C178" t="s">
-        <v>367</v>
+        <v>189</v>
+      </c>
+      <c r="C178">
+        <v>0</v>
       </c>
       <c r="D178">
         <v>3</v>
@@ -10541,10 +9944,10 @@
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>368</v>
-      </c>
-      <c r="C179" t="s">
-        <v>369</v>
+        <v>190</v>
+      </c>
+      <c r="C179">
+        <v>0</v>
       </c>
       <c r="D179">
         <v>3</v>
@@ -10591,10 +9994,10 @@
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>370</v>
-      </c>
-      <c r="C180" t="s">
-        <v>371</v>
+        <v>191</v>
+      </c>
+      <c r="C180">
+        <v>0</v>
       </c>
       <c r="D180">
         <v>3</v>
@@ -10641,10 +10044,10 @@
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>372</v>
-      </c>
-      <c r="C181" t="s">
-        <v>373</v>
+        <v>192</v>
+      </c>
+      <c r="C181">
+        <v>0</v>
       </c>
       <c r="D181">
         <v>3</v>
@@ -10691,10 +10094,10 @@
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>374</v>
-      </c>
-      <c r="C182" t="s">
-        <v>375</v>
+        <v>193</v>
+      </c>
+      <c r="C182">
+        <v>0</v>
       </c>
       <c r="D182">
         <v>3</v>
@@ -10741,10 +10144,10 @@
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>376</v>
-      </c>
-      <c r="C183" t="s">
-        <v>377</v>
+        <v>194</v>
+      </c>
+      <c r="C183">
+        <v>0</v>
       </c>
       <c r="D183">
         <v>3</v>
@@ -10791,10 +10194,10 @@
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>378</v>
-      </c>
-      <c r="C184" t="s">
-        <v>379</v>
+        <v>195</v>
+      </c>
+      <c r="C184">
+        <v>0</v>
       </c>
       <c r="D184">
         <v>3</v>
@@ -10841,10 +10244,10 @@
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>380</v>
-      </c>
-      <c r="C185" t="s">
-        <v>381</v>
+        <v>196</v>
+      </c>
+      <c r="C185">
+        <v>0</v>
       </c>
       <c r="D185">
         <v>3</v>
@@ -10891,10 +10294,10 @@
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>382</v>
-      </c>
-      <c r="C186" t="s">
-        <v>383</v>
+        <v>197</v>
+      </c>
+      <c r="C186">
+        <v>0</v>
       </c>
       <c r="D186">
         <v>3</v>
@@ -10941,10 +10344,10 @@
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>384</v>
-      </c>
-      <c r="C187" t="s">
-        <v>385</v>
+        <v>198</v>
+      </c>
+      <c r="C187">
+        <v>0</v>
       </c>
       <c r="D187">
         <v>3</v>
@@ -10991,10 +10394,10 @@
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>386</v>
-      </c>
-      <c r="C188" t="s">
-        <v>387</v>
+        <v>199</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
       </c>
       <c r="D188">
         <v>3</v>
@@ -11041,10 +10444,10 @@
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>388</v>
-      </c>
-      <c r="C189" t="s">
-        <v>389</v>
+        <v>200</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
       </c>
       <c r="D189">
         <v>3</v>
@@ -11091,10 +10494,10 @@
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>390</v>
-      </c>
-      <c r="C190" t="s">
-        <v>391</v>
+        <v>201</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
       </c>
       <c r="D190">
         <v>3</v>
@@ -11141,10 +10544,10 @@
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>392</v>
-      </c>
-      <c r="C191" t="s">
-        <v>393</v>
+        <v>202</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
       </c>
       <c r="D191">
         <v>3</v>
@@ -11191,10 +10594,10 @@
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>394</v>
-      </c>
-      <c r="C192" t="s">
-        <v>395</v>
+        <v>203</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
       </c>
       <c r="D192">
         <v>3</v>
@@ -11241,10 +10644,10 @@
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>396</v>
-      </c>
-      <c r="C193" t="s">
-        <v>397</v>
+        <v>204</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
       </c>
       <c r="D193">
         <v>3</v>
@@ -11291,10 +10694,10 @@
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>398</v>
-      </c>
-      <c r="C194" t="s">
-        <v>399</v>
+        <v>205</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
       </c>
       <c r="D194">
         <v>3</v>
@@ -11341,10 +10744,10 @@
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>400</v>
-      </c>
-      <c r="C195" t="s">
-        <v>401</v>
+        <v>206</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
       </c>
       <c r="D195">
         <v>3</v>
@@ -11391,10 +10794,10 @@
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>402</v>
-      </c>
-      <c r="C196" t="s">
-        <v>403</v>
+        <v>207</v>
+      </c>
+      <c r="C196">
+        <v>0</v>
       </c>
       <c r="D196">
         <v>3</v>
@@ -11441,10 +10844,10 @@
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>404</v>
-      </c>
-      <c r="C197" t="s">
-        <v>405</v>
+        <v>208</v>
+      </c>
+      <c r="C197">
+        <v>0</v>
       </c>
       <c r="D197">
         <v>3</v>
@@ -11491,10 +10894,10 @@
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>406</v>
-      </c>
-      <c r="C198" t="s">
-        <v>407</v>
+        <v>209</v>
+      </c>
+      <c r="C198">
+        <v>0</v>
       </c>
       <c r="D198">
         <v>3</v>
@@ -11541,10 +10944,10 @@
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>408</v>
-      </c>
-      <c r="C199" t="s">
-        <v>409</v>
+        <v>210</v>
+      </c>
+      <c r="C199">
+        <v>0</v>
       </c>
       <c r="D199">
         <v>3</v>
@@ -11591,10 +10994,10 @@
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>410</v>
-      </c>
-      <c r="C200" t="s">
-        <v>411</v>
+        <v>211</v>
+      </c>
+      <c r="C200">
+        <v>0</v>
       </c>
       <c r="D200">
         <v>3</v>
@@ -11641,10 +11044,10 @@
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>412</v>
-      </c>
-      <c r="C201" t="s">
-        <v>413</v>
+        <v>212</v>
+      </c>
+      <c r="C201">
+        <v>0</v>
       </c>
       <c r="D201">
         <v>3</v>
